--- a/biology/Zoologie/Carouge_de_Cuba/Carouge_de_Cuba.xlsx
+++ b/biology/Zoologie/Carouge_de_Cuba/Carouge_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agelaius assimilis
 Le Carouge de Cuba (Agelaius assimilis) est une espèce de passereaux de l’île de Cuba de la famille des ictéridés.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, il existe deux sous-espèces :
 A. a. assimilis Lembeye, 1850 ;
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge de Cuba se retrouve dans l’ouest de Cuba et sur Île de la Jeunesse.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce carouge niche dans les marais colonisés par une végétation émergente, notamment Typha domingensis, Phragmites et Sagittaria lancifolia.  En dehors de la saison de nidification, il s’aventure dans les champs et les pâturages.
 </t>
@@ -608,7 +626,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les roselières parvenus à maturité.  Le nid, construit par la femelle, est fixé aux joncs ou dans un buisson à environ 20 cm au-dessus du niveau de l’eau.  Les œufs sont au nombre de 2 à 3, parfois 4.
 </t>
